--- a/文档/入门/File/版本区别.xlsx
+++ b/文档/入门/File/版本区别.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Xperia-Guide\文档\入门\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C952B-8FE9-44C6-816A-BE8A1CD3B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328127B4-9FA7-407C-94B4-1DA1F07335B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
   </bookViews>
@@ -201,15 +201,6 @@
     <t>不支持部分中国移动常用频段</t>
   </si>
   <si>
-    <t>国内运营商基本完美使用，电信需系统和运营商同时开通VOLTE</t>
-  </si>
-  <si>
-    <t>同单卡无锁</t>
-  </si>
-  <si>
-    <t>不支持5G的型号大多默认不支持国内VOLTE，支持5G的型号默认支持VOLTE</t>
-  </si>
-  <si>
     <t>仅支持单卡且目前无法刷机解锁</t>
   </si>
   <si>
@@ -222,16 +213,25 @@
     <t>国内型号一般默认支持</t>
   </si>
   <si>
-    <t>频段支持（已解网络锁）1</t>
-  </si>
-  <si>
-    <t>可以互刷固件，功能支持就是另一回事了（2</t>
-  </si>
-  <si>
     <t>只能刷DO固件3</t>
   </si>
   <si>
     <t>1支持的频段具体看型号官网&lt;br&gt;2日版如果刷了其他地区固件，可能因为NFC芯片不同，导致NFC无法打开、打开了不能用，不能深度睡眠，CPU莫名高负载，甚至随机卡顿重启的问题&lt;br&gt;3因为绿灯的验证和其他设备不同</t>
+  </si>
+  <si>
+    <t>对国内运营商的支持同单卡无锁</t>
+  </si>
+  <si>
+    <t>不支持5G的型号大多默认不支持国内VOLTE，支持5G的型号默认支持VOLTE，大部分可通过QPST修改基带实现支持</t>
+  </si>
+  <si>
+    <t>可以互刷固件，功能支持就是另一回事了（</t>
+  </si>
+  <si>
+    <t>频段支持（已解网络锁）</t>
+  </si>
+  <si>
+    <t>国内运营商基本完美使用，电信需系统支持且运营商开通VOLTE</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,17 +270,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,8 +305,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,11 +323,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,58 +682,58 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
@@ -726,16 +742,16 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -744,58 +760,58 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -821,10 +837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EEC21F-9015-44C4-87DC-795FFCCD67B6}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="C2:I9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,84 +853,84 @@
     <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="2" spans="3:9" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="7" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -922,196 +938,207 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B547179F-1DB5-48B1-B0C0-5DDB5A89DB78}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:G13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B11:H14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>